--- a/soo/product.xlsx
+++ b/soo/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sec\Desktop\sesac-pjt-final\soo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98DFEDA-89F9-4EC9-B2B2-431F425F34EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFDD97E-8965-47BC-B1A5-60F0766533BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="506">
   <si>
     <t>제품명</t>
   </si>
@@ -1533,6 +1533,22 @@
   </si>
   <si>
     <t>모공/피지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정;미백;주름/탄력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보습;미백;주름/탄력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보습;진정;주름/탄력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보습;진정;미백</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1922,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="R99" sqref="R99"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="O112" sqref="O112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4586,9 +4602,6 @@
       <c r="J98" t="s">
         <v>500</v>
       </c>
-      <c r="M98" s="2" t="s">
-        <v>490</v>
-      </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
@@ -4618,9 +4631,6 @@
       <c r="J99" t="s">
         <v>498</v>
       </c>
-      <c r="M99" s="2" t="s">
-        <v>491</v>
-      </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
@@ -4650,9 +4660,6 @@
       <c r="J100" t="s">
         <v>495</v>
       </c>
-      <c r="M100" s="2" t="s">
-        <v>492</v>
-      </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
@@ -4682,9 +4689,6 @@
       <c r="J101" t="s">
         <v>495</v>
       </c>
-      <c r="M101" s="2" t="s">
-        <v>493</v>
-      </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
@@ -4711,8 +4715,8 @@
       <c r="I102">
         <v>1.25</v>
       </c>
-      <c r="M102" s="2" t="s">
-        <v>494</v>
+      <c r="J102" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
@@ -4740,6 +4744,9 @@
       <c r="I103">
         <v>1.1379310344827589</v>
       </c>
+      <c r="J103" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
@@ -4766,6 +4773,9 @@
       <c r="I104">
         <v>1.0769230769230771</v>
       </c>
+      <c r="J104" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
@@ -4792,6 +4802,9 @@
       <c r="I105">
         <v>1.081632653061225</v>
       </c>
+      <c r="J105" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
@@ -4818,6 +4831,9 @@
       <c r="I106">
         <v>1.2790697674418601</v>
       </c>
+      <c r="J106" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
@@ -4844,6 +4860,12 @@
       <c r="I107">
         <v>1.194444444444444</v>
       </c>
+      <c r="J107" t="s">
+        <v>495</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
@@ -4870,6 +4892,12 @@
       <c r="I108">
         <v>1.142857142857143</v>
       </c>
+      <c r="J108" t="s">
+        <v>495</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
@@ -4896,6 +4924,12 @@
       <c r="I109">
         <v>1.1842105263157889</v>
       </c>
+      <c r="J109" t="s">
+        <v>502</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
@@ -4922,6 +4956,12 @@
       <c r="I110">
         <v>1.4242424242424241</v>
       </c>
+      <c r="J110" t="s">
+        <v>503</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
@@ -4948,6 +4988,12 @@
       <c r="I111">
         <v>1.2592592592592591</v>
       </c>
+      <c r="J111" t="s">
+        <v>495</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
@@ -4974,8 +5020,11 @@
       <c r="I112">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J112" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>458</v>
       </c>
@@ -5000,8 +5049,11 @@
       <c r="I113">
         <v>1.13953488372093</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J113" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>461</v>
       </c>
@@ -5026,8 +5078,11 @@
       <c r="I114">
         <v>1.2173913043478259</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J114" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>465</v>
       </c>
@@ -5052,8 +5107,11 @@
       <c r="I115">
         <v>1.193548387096774</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J115" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>469</v>
       </c>
@@ -5078,8 +5136,11 @@
       <c r="I116">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J116" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>472</v>
       </c>
@@ -5104,8 +5165,11 @@
       <c r="I117">
         <v>1.1836734693877551</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J117" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>475</v>
       </c>
@@ -5130,8 +5194,11 @@
       <c r="I118">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J118" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>478</v>
       </c>
@@ -5156,8 +5223,11 @@
       <c r="I119">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J119" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>482</v>
       </c>
@@ -5182,8 +5252,11 @@
       <c r="I120">
         <v>1.6086956521739131</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J120" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>485</v>
       </c>
@@ -5207,6 +5280,9 @@
       </c>
       <c r="I121">
         <v>1.172413793103448</v>
+      </c>
+      <c r="J121" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
